--- a/src/main/resources/testData/validLogincredentials.xlsx
+++ b/src/main/resources/testData/validLogincredentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielslechta/Developer/Selenium/PortfolioProject/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BDC6F3-3A93-8648-B927-CBA548CDD504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8056E04E-A220-0F49-8840-344568A68CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,15 +26,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t> </t>
   </si>
   <si>
-    <t>email</t>
+    <t>password</t>
   </si>
   <si>
-    <t>password</t>
+    <t>TestPass</t>
+  </si>
+  <si>
+    <t>JohnTester</t>
+  </si>
+  <si>
+    <t>login</t>
   </si>
 </sst>
 </file>
@@ -364,7 +370,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -375,9 +381,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
